--- a/tablolar/hepsiburada/hepsiburada.xlsx
+++ b/tablolar/hepsiburada/hepsiburada.xlsx
@@ -26,13 +26,15 @@
     <sheet sheetId="20" name="Beyaz Koltuk Şalı" state="visible" r:id="rId23"/>
     <sheet sheetId="21" name="Turuncu Koltuk Şalı" state="visible" r:id="rId24"/>
     <sheet sheetId="22" name="Hardal Koltuk Şalı" state="visible" r:id="rId25"/>
+    <sheet sheetId="23" name="Mavi Koltuk Şalı" state="visible" r:id="rId26"/>
+    <sheet sheetId="24" name="Siyah Masa Örtüsü" state="visible" r:id="rId27"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="759">
   <si>
     <t>ID</t>
   </si>
@@ -2192,6 +2194,161 @@
   </si>
   <si>
     <t>https://productimages.hepsiburada.net/s/354/550/110000363106697.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/latuda-sonil-cift-tarafli-kaymaz-koltuk-sali-koltuk-ortusu-cekyat-ortusu-mavi-p-HBV00000R87AP</t>
+  </si>
+  <si>
+    <t>Latuda Şönil Çift Taraflı Kaymaz Koltuk Şalı | Koltuk Örtüsü | Çekyat Örtüsü Mavi</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/36/550/10500760272946.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/latuda-sonil-cift-tarafli-kaymaz-koltuk-sali-koltuk-ortusu-cekyat-ortusu-turkuaz-p-HBV00000R87AK</t>
+  </si>
+  <si>
+    <t>Latuda Şönil Çift Taraflı Kaymaz Koltuk Şalı | Koltuk Örtüsü | Çekyat Örtüsü Turkuaz</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/36/550/10500759617586.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/velerde-home-battal-boy-kollarinida-kapatan-sonil-cift-tarafli-kaymaz-koltuk-ortusu-cekyat-ortusu-koltuk-sali-renk-turkuaz-p-HBV00001BWBKN</t>
+  </si>
+  <si>
+    <t>Velerde Home Battal Boy | Kollarınıda kapatan | Şönil Çift Taraflı Kaymaz Koltuk Örtüsü | Çekyat Örtüsü | Koltuk Şalı | Renk : Turkuaz</t>
+  </si>
+  <si>
+    <t>304,90 TL</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/96/550/110000039474184.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/velerde-home-standart-boy-kollari-kapamaz-sonil-cift-tarafli-kaymaz-koltuk-ortusu-cekyat-ortusu-koltuk-sali-renk-buz-mavi-p-HBV00000XWFMJ</t>
+  </si>
+  <si>
+    <t>Velerde Home Standart Boy | Kolları kapamaz | Şönil Çift Taraflı Kaymaz Koltuk Örtüsü | Çekyat Örtüsü | Koltuk Şalı | Renk : Buz Mavi</t>
+  </si>
+  <si>
+    <t>Buz Mavi</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/90/550/110000032608497.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/a-s-t-topdagi-tekstil-agackabugu-kaymaz-koltuk-ortusu-koltuk-sali-p-HBV00000J7JKB</t>
+  </si>
+  <si>
+    <t>A.S.T Topdağı Tekstil Ağaçkabuğu Kaymaz Koltuk Örtüsü Koltuk Şalı</t>
+  </si>
+  <si>
+    <t>239,00 TL</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/26/550/10156493799474.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/a-s-t-topdagi-tekstil-agackabugu-kaymaz-koltuk-ortusu-koltuk-sali-p-HBV00000J7JKD</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/26/550/10156493865010.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/lux-touch-sofya-indigo-keten-koltuk-ortusu-170-x-210-cm-koltuk-sali-kanepe-berjer-koltuk-ortusu-pamuklu-throw-p-HBCV00000CI4BE</t>
+  </si>
+  <si>
+    <t>Lux Touch Sofya Indigo Keten Koltuk Örtüsü 170 x 210 cm Koltuk Şalı Kanepe Berjer Koltuk Örtüsü Pamuklu Throw</t>
+  </si>
+  <si>
+    <t>174,90 TL</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>İndigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                    170 x 210 cm
+                                </t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/93/550/110000035753511.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/lux-touch-bergama-indigo-dokuma-koltuk-ortusu-koltuk-sali-170x220-cm-cekyat-ortusu-pamuklu-p-HBCV00000CI4V8</t>
+  </si>
+  <si>
+    <t>Lux Touch | Bergama | Indigo Dokuma Koltuk Örtüsü | Koltuk Şalı | 170X220 cm | Çekyat Örtüsü | Pamuklu</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/93/550/110000035753524.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/lux-touch-bergama-bebe-mavi-dokuma-koltuk-ortusu-koltuk-sali-170x220-cm-cekyat-ortusu-pamuklu-p-HBCV00000CI4V6</t>
+  </si>
+  <si>
+    <t>Lux Touch | Bergama | Bebe Mavi Dokuma Koltuk Örtüsü | Koltuk Şalı | 170X220 cm | Çekyat Örtüsü | Pamuklu</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/93/550/110000035753522.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/velerde-home-vessel-turkuaz-battal-boy-kollarinida-kapatan-cift-tarafli-cekyat-koltuk-ortusu-sali-p-HBCV00000FK72C</t>
+  </si>
+  <si>
+    <t>Velerde Home vessel Turkuaz Battal Boy Kollarınıda Kapatan Çift Taraflı Çekyat Koltuk Örtüsü Şalı</t>
+  </si>
+  <si>
+    <t>334,90 TL</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/102/550/110000045549142.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/kosem-ceyiz-kdk-kumas-leke-tutmaz-dertsiz-masa-ortusu-160x220-cm-siyah-p-HBV000015RBIO</t>
+  </si>
+  <si>
+    <t>Köşem Çeyiz Kdk Kumaş Leke Tutmaz Dertsiz Masa Örtüsü 160X220 cm Siyah</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/51/550/11072230424626.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/sermat-mermer-desen-masa-ortusu-p-HBV00001BV4TX</t>
+  </si>
+  <si>
+    <t>Sermat Mermer Desen Masa Örtüsü</t>
+  </si>
+  <si>
+    <t>41,90 TL</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/58/550/11306764206130.jpg</t>
+  </si>
+  <si>
+    <t>https://www.hepsiburada.com/vagonik-cok-amacli-sofra-bezi-piknik-ortusu-masa-ortusu-siyah-ekose-potikare-desenli-140x140-cm-p-HBCV00002NVXP2</t>
+  </si>
+  <si>
+    <t>Vagonik Çok Amaçlı Sofra Bezi Piknik Örtüsü &amp; Masa Örtüsü Siyah Ekose Pötikare Desenli 140X140 cm</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>https://productimages.hepsiburada.net/s/258/550/110000241664556.jpg</t>
   </si>
 </sst>
 </file>
@@ -7561,6 +7718,469 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D4" t="s">
+        <v>715</v>
+      </c>
+      <c r="E4" t="s">
+        <v>716</v>
+      </c>
+      <c r="F4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>720</v>
+      </c>
+      <c r="I5" t="s">
+        <v>579</v>
+      </c>
+      <c r="J5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D6" t="s">
+        <v>723</v>
+      </c>
+      <c r="E6" t="s">
+        <v>724</v>
+      </c>
+      <c r="F6" t="s">
+        <v>725</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>727</v>
+      </c>
+      <c r="D7" t="s">
+        <v>723</v>
+      </c>
+      <c r="E7" t="s">
+        <v>724</v>
+      </c>
+      <c r="F7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>729</v>
+      </c>
+      <c r="D8" t="s">
+        <v>730</v>
+      </c>
+      <c r="E8" t="s">
+        <v>731</v>
+      </c>
+      <c r="F8" t="s">
+        <v>732</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>733</v>
+      </c>
+      <c r="I8" t="s">
+        <v>734</v>
+      </c>
+      <c r="J8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>736</v>
+      </c>
+      <c r="D9" t="s">
+        <v>737</v>
+      </c>
+      <c r="E9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F9" t="s">
+        <v>583</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>739</v>
+      </c>
+      <c r="D10" t="s">
+        <v>740</v>
+      </c>
+      <c r="E10" t="s">
+        <v>576</v>
+      </c>
+      <c r="F10" t="s">
+        <v>583</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>742</v>
+      </c>
+      <c r="D11" t="s">
+        <v>743</v>
+      </c>
+      <c r="E11" t="s">
+        <v>744</v>
+      </c>
+      <c r="F11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>750</v>
+      </c>
+      <c r="D3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F3" t="s">
+        <v>753</v>
+      </c>
+      <c r="G3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D4" t="s">
+        <v>756</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>757</v>
+      </c>
+      <c r="G4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
